--- a/data/trans_bre/P23_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_1_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,8</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-3,51</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>4,93</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>45,88%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>221,36%</t>
+          <t>57,82%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>57,82%</t>
+          <t>-4,67%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>198,94%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-36,99%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>57,81%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-36,62%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 12,11</t>
+          <t>-2,37; 12,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 9,88</t>
+          <t>-12,33; 6,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,61; 12,84</t>
+          <t>0,72; 11,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 13,86</t>
+          <t>-11,48; 3,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-28,76; 221,48</t>
+          <t>-4,04; 13,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-50,42; 136,09</t>
+          <t>-13,24; 3,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,93; 1347,55</t>
+          <t>-24,37; 228,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-35,23; 255,01</t>
+          <t>-57,93; 86,39</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-11,11; 1158,3</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-76,48; 82,6</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-36,44; 266,75</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-76,69; 53,38</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>-4,88</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>21,53%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>-5,67</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>53,98%</t>
+          <t>20,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-33,43%</t>
+          <t>-2,27%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>53,61%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20,91%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-33,44%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-37,36%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 8,67</t>
+          <t>-4,99; 8,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 7,4</t>
+          <t>-14,33; 7,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 15,26</t>
+          <t>-6,35; 14,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 3,27</t>
+          <t>-4,77; 10,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,66; 146,93</t>
+          <t>-12,38; 3,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,22; 90,67</t>
+          <t>-13,93; 3,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,01; 186,79</t>
+          <t>-40,58; 148,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,64; 37,44</t>
+          <t>-59,51; 84,22</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-31,28; 175,8</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-36,99; 152,35</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-65,3; 36,75</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-66,71; 39,61</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>9,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-2,88</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>3,55</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-14,23%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>87,7%</t>
+          <t>-6,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>90,84%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-20,15%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>23,49%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-35,19%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 4,44</t>
+          <t>-5,54; 6,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 14,22</t>
+          <t>4,21; 15,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 5,63</t>
+          <t>-5,39; 6,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 10,44</t>
+          <t>-8,59; 3,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-53,41; 43,69</t>
+          <t>-3,79; 10,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,86; 173,75</t>
+          <t>-14,55; 1,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-28,21; 39,61</t>
+          <t>-33,95; 65,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-19,28; 92,15</t>
+          <t>26,71; 187,0</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-26,96; 47,53</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-48,6; 31,04</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-20,56; 86,43</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-62,97; 13,56</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>1,18</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>10,87%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>-4,32</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>1,89%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17,02%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>37,05%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>7,04%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-19,53%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 7,99</t>
+          <t>-6,73; 6,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 6,37</t>
+          <t>-5,76; 6,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 8,21</t>
+          <t>-3,55; 8,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 7,75</t>
+          <t>-1,69; 9,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,41; 78,66</t>
+          <t>-5,9; 9,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,52; 47,61</t>
+          <t>-11,71; 3,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,39; 65,23</t>
+          <t>-39,78; 62,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,65; 58,16</t>
+          <t>-28,71; 44,27</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-19,03; 69,59</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-16,21; 124,16</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-28,68; 73,25</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-44,28; 17,89</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,43</t>
+          <t>-5,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>5,22</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-1,76</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>2,14</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-31,67%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>34,77%</t>
+          <t>-7,4</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-7,59%</t>
+          <t>-30,92%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>35,62%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-9,94%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-10,58%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>12,28%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-30,69%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 1,14</t>
+          <t>-12,98; 1,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 11,0</t>
+          <t>-1,22; 12,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 4,49</t>
+          <t>-7,95; 4,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 9,97</t>
+          <t>-10,05; 5,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-59,9; 12,43</t>
+          <t>-6,03; 10,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 99,53</t>
+          <t>-15,84; 0,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-43,01; 41,64</t>
+          <t>-59,51; 10,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-25,0; 69,74</t>
+          <t>-7,92; 101,03</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-44,72; 37,99</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-48,54; 47,98</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-27,69; 74,42</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-55,2; 4,41</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,51</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,47</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-13,49%</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-5,81%</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-24,16%</t>
+          <t>-2,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-24,25%</t>
+          <t>-1,85%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-17,23%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3,9%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-24,2%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>35,35%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 5,52</t>
+          <t>-9,95; 7,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 6,25</t>
+          <t>-8,66; 6,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 2,52</t>
+          <t>-11,29; 6,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 5,22</t>
+          <t>-8,11; 8,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-67,25; 75,11</t>
+          <t>-13,43; 3,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-56,71; 64,46</t>
+          <t>-3,75; 14,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-56,05; 21,9</t>
+          <t>-58,66; 93,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-59,12; 43,95</t>
+          <t>-46,03; 64,34</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-48,97; 52,25</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-43,18; 91,29</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-59,11; 31,33</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-20,04; 131,1</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>0,39</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-2,37%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>18,02%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>13,88%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,01%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-18,7%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 2,41</t>
+          <t>-2,35; 3,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 5,54</t>
+          <t>-0,64; 5,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 4,72</t>
+          <t>-1,21; 4,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 4,11</t>
+          <t>-2,96; 2,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-24,34; 22,02</t>
+          <t>-2,86; 3,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 46,69</t>
+          <t>-6,82; 0,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 39,28</t>
+          <t>-17,76; 31,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-17,05; 30,8</t>
+          <t>-3,9; 45,49</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-7,61; 37,78</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-21,06; 25,9</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-17,06; 26,89</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-34,16; 0,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
